--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/68_Siirt_2019.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/68_Siirt_2019.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{014FDE57-446F-4F7A-8D47-807215BC37D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{52393E32-5E19-42FF-92A6-69D5E2780A05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="663" xr2:uid="{05FD0115-ED45-43D2-AC5D-D5FD7AE78DC7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="663" xr2:uid="{209DEADA-4409-41AD-AD3E-17037127B017}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -953,13 +953,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{07C61F7A-BFA8-4D78-B970-DB0D2268A8D5}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{66692CC9-6D46-4CF7-B481-F44D03CC18D4}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{73A6AEB8-4E95-4006-8515-FB88136173BB}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{6E9EE9B3-5282-468D-9CAB-237DD3B24371}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{812882E6-FD54-482C-BD8F-DC616572785E}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{E79DFA4C-08CA-421C-A06A-1810B42E9E2A}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{8C5BD83E-2F82-4A24-ACEE-9D16B9DEF80D}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{13358F6A-B35C-4D74-99DD-6402886D6D74}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{C116B5EE-01BD-4431-A158-0A315C958E84}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{84F8C387-0FC1-48BD-A5D1-BA90D93BC041}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{A0012A3B-8491-4147-B7BC-2AB75110C548}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{DDDC38CC-B55B-4EC2-B5C7-A440E2B8032F}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{1AC73C8D-7D9D-489A-9D83-0B97421D7E17}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{8F1F87E7-5439-41EB-8142-C36B9D01EAA3}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1329,7 +1329,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF7A0E24-6782-41A9-B5EC-73F78E93438A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B35E521-97E0-4672-9968-41409152C41D}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2528,18 +2528,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{250AA588-B269-48C8-BAF0-6D22C38BDFF4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B1F81AEB-48C9-4D3E-9E79-9F8241660F0F}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C5F71767-CD1E-4DEE-B9CE-6BD8A53E6246}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{9E3B4469-855B-4D9E-BD4A-6306F2B42303}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{41974E14-6D3C-4D3D-9EBD-14443D04C03E}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{1EFED9A4-5A72-4EA8-B4A4-5105B250FBF4}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{ABAD1FD9-9A2C-45D6-A1CA-CF3602A08616}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9C262119-D90D-46A4-9BDE-46A3CCB79D6A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6E1C1333-145F-4246-9C3D-9081660D21DF}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A2B91A60-C6FA-452E-A3FE-0EF08CA91245}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DF934612-B5D0-4623-A85C-62C1C9F0D3B8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1241C951-8411-4E54-9F87-1CA3EB621FA8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{73087253-E798-4F97-A08E-699158354913}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D1EB7CBE-D0BA-4CA4-914F-FCD5FF172257}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A88C7D5D-9804-49D2-AE2C-4803933E8D90}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{7385EEB9-C084-445D-BCB0-333B46C5393F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{47D9A274-0582-4977-B209-25E413A6C213}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{0D737ACE-8F31-4D4C-AF07-4E3A2A3CEF0E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{13F31E4D-35AF-4044-91CB-EC54E853FCE3}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{454DFD7B-FB0E-4FF7-9EEF-1BB214A88967}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A03E331F-A2EE-472B-AC83-3E6AC63250D0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9F78EAD8-9DA1-4C24-8841-26348A90F023}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FFA9797E-F32B-4102-AF95-517B7A601E96}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{98F238E4-F1C3-4B8C-8DB9-5380AF9F92A1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2552,7 +2552,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B36B614-86AC-4553-9A72-34A5C92C2950}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5261E913-5636-471C-9D5C-468A295D17B1}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -3738,18 +3738,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D489F5B4-0A90-4C1C-B404-833F77587FAD}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5373917B-7930-40B1-B57B-1A4877A99E80}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C2990CA6-D863-4D66-890A-2EA89D0047F7}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{6FB444A1-ABEC-4A36-A1A5-0DC6332FCE22}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A55BB8E0-4BBA-41E2-9994-76305A3420EA}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{4BA7C580-2E68-41A1-877B-F124DE92BAD2}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CFF19666-709C-4A4D-8080-4CAFBA12904C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3DF0CAE5-5D11-4DAE-931D-30D3BE7F42BB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{194B1653-32C1-4153-8785-465280324BF7}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{34D6EE46-9508-43CD-B967-DB58FB0DDAFA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6744E70A-4FF5-4E46-AE9C-A88D699706E2}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A4471F9E-60EE-4930-ADEF-DD4E5D49B93B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0DC90B08-08A9-43A2-A86E-B5C98E83273C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{277946BA-80E1-4411-9759-1B2E2C92CE20}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{7CFE28F6-EA3E-41D3-82AF-769D5B8A7504}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{089FB4DF-8C34-46A8-AFD8-D0A2CFCEC104}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D43F5F42-74A0-4D5D-8473-87121DCC7FE1}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{184DB48B-6F12-41D7-866F-235711E4F033}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F4AB9878-99DF-42EA-B7E9-C0C34C513907}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9B62F098-05FE-4627-AB18-B7BA3A2F0E52}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{12F23EE6-E10F-43E0-BB6D-89F0F0D787CD}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8B423C51-1F48-4A39-BA27-3B9BAF350842}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{25103F15-F91C-40CA-AB3B-3E8AC4013C41}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{616A9D95-48E5-4CC0-82EA-1CE93B5D92BB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3762,7 +3762,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0526392-7C0D-473F-ADF7-A5AF54FC9588}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62BE381E-B5FF-4BFA-9E7E-DA6A96CE7FD0}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -4944,18 +4944,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AD200D5C-D353-4C9C-A9CE-079DA1DF3EEE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E7D60C5C-70CB-4E45-9757-CD2B3EC41C42}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3485AF1E-A456-4240-9C59-0461DBD711F9}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{67178168-5331-4CE9-B456-636610174D61}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A4A62387-A646-498F-82C1-C0981BC70DEB}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{633D94CE-589F-4A19-A847-AFD53E7B0D30}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EF1AFAE7-C312-48B8-BC59-BF97242B4547}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{194402F8-D350-49C2-A283-49725BE5284C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{445A2B5A-74C2-4A66-9D10-A618EBD5AC8D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C34A0194-458A-47DD-84E0-F754079A29E7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{22F6F9DF-64F1-48D8-9475-4429EE80EB7A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4713AD20-25C7-4854-9D5D-F3ECE00E57B4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{480EF254-0AB3-4F0B-98C4-BF37FFC03F44}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3CCE0CD2-74CA-4BC9-B8B8-F7A38E2FF786}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D1F358D2-7DFD-47F9-8E36-47BBE44862CC}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A332BBE3-F8A1-470B-A26F-AA57667C04CA}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{75CDCBBE-6F02-427A-A103-F6A842EA6E9C}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{B1D6900E-6470-4F3E-A441-32D85E289650}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CBD7EA31-4C1F-4504-9CB1-3F6713A55972}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CEFDB86D-0846-4E62-9CA3-487F74CA1749}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FF4CA510-0E4C-4548-A6C3-11B289BD54D4}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E999122D-1768-4589-86A1-5AB15766A67A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3E95AB8C-2622-44F7-AD8E-BCA284E68E97}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D79908A0-0563-40D9-A554-B34121587058}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4968,7 +4968,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B42D1D7C-9196-45E9-B120-A55A0C744B99}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A699F56B-E436-46D2-99C5-3E2E3BF08FC4}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6162,18 +6162,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B5D1F5FD-5097-419D-9454-344AE7718BD4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CE98BA2D-F3A1-4F3D-A3F8-F53C051E3229}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5EFCD198-6A85-41C3-94D2-16FFD2E08615}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{583A4647-2BFC-45E6-8E02-5103C5748A85}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E5F9F719-B72F-4B93-B986-7E56CB60C27D}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{45DFA391-11E0-42FC-A4CF-5A40A793A2CC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7B5DAF7D-6DEA-4682-8D83-B46F3D582D0E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5DC5F7A8-CABA-41C2-942D-E5F946268B3B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9BC4C18F-91BF-47FF-8688-51CF5F9787F5}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6346117A-E09F-41F1-9CE9-0C06B10EAC0F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3007099E-8C4D-4490-8AFC-C01427ADF374}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9314E51B-5DBD-4BD1-9218-D45A084EA538}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{37FCC7E6-4EE3-4663-B2F4-6619D7BB2647}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8C88D9C3-D3C1-4786-B079-4CDB2AF84045}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{BD03CD31-AB0B-43ED-BFFA-F1F2E92F6171}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{24642754-8C99-42B5-932B-6B3A659C99BD}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4F89AC9A-D623-41D3-856A-81C72961169A}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{6FA763DE-72DE-4CA5-95D9-09D6EC9F9B78}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7FBB440B-395D-4B6D-9B2A-ADFE52CF4BC4}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{348D87F6-6150-4E6A-9981-6D3BC06DD1AC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3A250CDE-37C3-4CFA-963E-35D30B2AD6D5}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4C18F99D-ABE7-486D-A97F-AC04E15BD865}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{843180F7-F018-4538-A089-4B8AC22956C4}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{96780D1C-F8A5-4ED8-8F80-86167BF4F745}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6186,7 +6186,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9257C7C0-B02E-4FB8-B541-DECA2125ACD6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7851525C-768B-4EBA-B2AC-9374540815AF}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7387,18 +7387,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B3FB8787-A83D-4869-B9E5-096D4152E436}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{111DBF94-4ACB-41FC-961D-85FF8803D110}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C91D0412-1498-4E7F-B739-83AFB1194778}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{FDDB4384-1DF9-45AC-9ED4-B79F0B514610}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{06306A10-73CA-44CF-8F73-0A126E59A1AF}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{FEDA761B-A112-4A23-B36F-27C4ACC3176B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BD1F0F82-5DB4-41DB-A4FD-AB36178B713B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8F177E5B-6AD0-4E0C-8EED-A42C52B83370}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{40D69037-37FE-47C9-9A59-7B68DAF75160}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{24C92874-76DE-4FEE-8EB7-B4A344273D75}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{261C888D-7103-47BA-A396-29435235FBEB}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0DFC84A9-AA7A-4BD0-87FA-650524B44179}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D6BF5BA6-2A4F-4F6F-A057-61B6FE0C4D19}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E8785255-9822-4F30-9A36-82CD352C7B69}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{64908B9B-D407-429B-8FA0-57CBB819C1A4}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{0A3088EC-A9D6-4A80-9632-E58B9DC2F9AA}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{133EC614-BEE0-4415-B6D3-177C48BE61ED}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{BA426845-D263-478C-A166-A198377AB4F0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{75DBAF46-8F3D-41CE-87C8-8E2403A876E5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5F5567E7-EAB4-4D1B-AC4D-6202F01B7510}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4AC3AE34-A8CA-4B0D-A566-0A3753AAB171}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A7EB345C-0D2B-4EA8-B370-91B7B8A4B563}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B799F81B-4A5D-4306-B085-28AF00575224}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3C24730A-D910-4251-B648-0116F11BDC51}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7411,7 +7411,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DA51C3B-4BF1-4D7D-A09D-33AE95A86B3D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01FD0531-77A0-4E27-B77E-B11282311819}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8612,18 +8612,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{73895D22-6AA5-4AC2-AA2E-939BCA621C0D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{562D5A0D-6597-4B68-B962-DFBFB1774E3F}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F361F50C-1749-44CD-8865-158F186804F7}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C31B4D91-313F-42AD-B4D4-1E2A985D8C9C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0571B010-7971-4600-A1C4-0A5066FFAF16}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F353CFD2-98FA-4EF5-BBC4-7C66FB546415}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{10C8F965-9BB2-442A-B6D3-6BC2B663FF35}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{297516FB-EA5E-412F-9F66-42B245674753}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4CACB342-16E2-4107-B813-ABBC8750088B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{554513D9-437D-40E0-B0CE-085D51917D0F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1FD6853E-D40E-45EB-ACA0-64E6443E8A76}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A369C989-FC93-4E01-B278-4ECDFB04FD11}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{290459BE-658B-4901-84CB-CEAF2B19455F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AA514E52-4224-4D55-B61A-8CBFB4765B90}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{55AADE53-F246-4A36-B8CE-661296A08CFB}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{6FC9A237-DABC-4A08-815E-F1E390D04C9F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{05D194BB-CFFD-4AC8-8816-8B65994F5865}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{4B8073FF-6D08-490D-B440-B9BE25CF976B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8C87E7AF-2A1B-4652-B85E-FCD42A0E9360}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{529BBFAE-52E1-46F8-BDC7-0EA1400808D4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B3DF7DDB-CF50-4501-B882-88A6BF5F0C19}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{34F6920F-45EC-44EC-BD88-A0016A7DC27B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4807E23C-51EF-460F-B2CF-BDAAD3BF867C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{15FDD8C8-963B-4B00-93D5-E0EDCECBC272}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8636,7 +8636,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{844F024C-1827-45B4-819E-ED8ADA61CA56}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38B2446D-07E6-445F-9389-BD6A13AD7C0C}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9837,18 +9837,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DA205DEA-8546-49B1-89A5-EC96142CD256}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7963BAF0-A7CF-4436-9EE1-B48D733F3723}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A5E45E73-BD5D-4EBE-AF08-5E9595AB32DC}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{FFCD11CB-5F57-43C2-98AE-7D2F078654EB}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F671CB34-2DCB-4014-B8E1-24186D0F4BE9}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{1833A7AA-1A58-4158-B7E5-5BD26DDB035F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EDB1A521-D367-41D6-A8FE-A2C43F0FE8C3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{77866A1C-E677-403E-A9A8-0ACEC3CF315B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4B8E3CA2-7EE7-4414-B50B-C4D9AFEDAD9B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F7823571-0563-4679-8867-6406677C3EF2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9C2A7301-3024-4264-B445-E62B321735B1}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BEBD1790-5D35-4D5E-96A8-E839AA73B3DF}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6072C993-B593-4242-AEE9-1EBB21B96EEC}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1A12DE1D-A975-4599-A4DE-CD355DFF9947}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{471080D2-D64A-4BF0-B0EB-EDB91D50B7B3}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{30E2B369-3848-4686-908C-C689F73EAB98}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0ACEC518-E37D-4E75-B5D5-2BB496AA3A63}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{34F9098B-B055-4FD6-BF6B-FF65B98FF4CA}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BD0652AD-4648-4F20-B7EE-B528FFA716C4}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9096A251-C4B1-41B3-BC7E-470C36190489}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CED9500D-6CB6-4A68-A698-147917F2625E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9A101D73-E85D-4707-B574-83810FD64DE0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1833B1D7-7BCD-49C2-AF55-457877FF71D5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AB7D05FC-563F-4B96-8E21-A6B6721E2868}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9861,7 +9861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8103C8BD-E87F-4C06-9BAD-D8AAD0EFE53B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E2CDF65-53D0-493C-8130-AE2504D74998}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11058,18 +11058,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{89DAEFCC-64A9-4461-9B54-55F40A8A7F75}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1E4834B3-A50E-4EEC-A462-7E807B05CFF6}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0B0A989B-B02A-4866-A8E5-1305FAF4EC7A}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{1653E60C-4377-4E0A-B560-5E724DED75AF}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{693FC761-11EF-41B4-B25C-68BCC7BB050A}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{70277947-64A2-4981-B696-F4D138363F78}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8581992D-E3F3-46E8-A613-4CC8659F0FC7}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5589E8CD-2B19-4994-8E36-C2B75E9F9E54}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{87279575-F097-4867-9BC8-6B8545AC5305}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{AC4D4EFE-EE3A-439B-8E0A-12B77A1A5779}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{01C75F76-4F9C-467E-B926-C77CC78E1459}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A5008AED-059C-4D92-8D7D-C621DA265043}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{13F3405E-AF5B-427B-807F-CC0E962EAAFF}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BD61F65F-7A80-44E0-9519-8BF2D103BAA0}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F3E40BCB-409B-438D-845F-A752E5339B8F}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A0DE29CB-96E4-4F52-AA1D-8A13BE64649C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A1E09D8D-A011-4A6D-A55B-4F6D9A5D87FA}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F3A8B9EF-1DF6-4DE8-8A5D-4B01F1E83D4C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4A04C326-E77B-47B7-AE1D-34450D28216D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{84F30CD5-DC60-42D7-8162-1616AA3564EB}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{084DAD2B-065D-42B3-AC84-6FDBB735EA5E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9206BBCA-D09B-4AA7-B400-38D35EA8069C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{97D46DF0-D817-4441-9ED8-1639538BB445}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{46F23F8D-6BC9-4D79-A723-150B4F967DC1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11082,7 +11082,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48D02788-1CE3-473E-934B-44543396847B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE1F41A7-02B5-4251-8283-65E2D82491EB}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -12280,18 +12280,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FD0301B0-C23F-4EC8-B415-9FC6563A5C78}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{10B6C9DB-229D-42A5-87B1-9D61AE7C0171}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{CAE213EF-BDB5-437B-A667-FC99C594BBA1}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E90A7107-0C4E-4E60-A034-0303D94FB03C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5B6B2FB3-B152-48FB-AE60-C044948BE6EC}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{CEB14F29-B787-4B06-A26A-0B63219FBB61}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5382E474-10D3-4382-A21F-7B963AC77EE3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2E48259E-581B-4D32-B571-C3485913FDFA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7EC67CBE-5488-4ECD-8452-5D65EA98B754}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{016C0057-2E22-4390-B42B-A903A05EBAE3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2C49CF74-A88F-4BE8-9A66-7622474E6796}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A9485C9A-1814-4496-B1C1-020CBB7AAD87}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B65852BF-90A8-493C-8A04-5EB9EBFA6C2C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8996794D-066E-4B63-A183-DA91B9C5BE0B}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C8866433-2FE7-4630-8AAE-213B32715245}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{2AADB2EB-0851-4668-8BCF-C64AC02B5299}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7115C2E7-52F0-4875-92E0-67887F9D3A3D}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{C1235CB5-A2E1-44E5-B355-795E41183D74}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{54B83D3D-359B-4FD9-9176-894A3A2F141E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D8334F31-9305-4715-AB2A-EF732AAA09EC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CDDE6582-70A5-4B5F-93E6-E42A7EC1DE9F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{660D2343-2157-4D9D-9ECD-20A53EFAD9F1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A6A08B96-5062-401D-ACDF-D2BD5743D9CD}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{79158DCE-0DD0-4CC8-B3B2-F438B429F192}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12304,7 +12304,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C393A053-A856-4A20-87D1-6E49DE9B6F7E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B78F72A5-7039-47E0-B6B6-14A40B82DE48}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -13498,18 +13498,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7396CB95-B760-4800-A43F-0DE5D18DC098}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E3A3F640-5534-448C-8464-520F846FDDD9}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{78B9C9F3-18C9-488D-B192-DD0CB31DC031}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{16CB6416-56B3-464C-9288-8465ACC266A2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C867A805-E94C-4D79-B1A2-68FC54F34136}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{9DAC4964-BBF7-4D31-9460-EB8955AEECC1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{44CD5936-1559-4E14-A2DD-7182B0774308}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2C4A82BB-5D83-4884-8730-1925FB3B1B48}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D36515FF-74A1-49EA-8060-3B18940F5561}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{177875A0-5A67-4A91-B7DF-F913FD30151C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2DAE5FD8-434D-4F9C-A592-FA4097E2EF46}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{301CF2A0-EAFD-4192-85C4-DE3B43D756F6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9E082734-03C5-40B7-9BDA-03C2D18025FC}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1482CD93-FE37-4D6D-AE80-E4678800437B}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{AF682A50-9604-4924-9843-F304FF6BF4EF}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{00E7BD6E-19D9-4A50-BD54-A207A47FD055}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4BCDCB19-95AB-4D27-98BA-D2878CF9F67D}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{79EE2C7A-AAE5-4B77-B700-E3B7740F28C6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{96CB68DD-7850-42D3-B325-4DE979600996}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1CEF1882-EB04-41B2-B7C5-D5CE18FE52D2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{96430220-FF5D-4BB8-BF54-6DCB720F52C7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A98F3CFE-491E-4E69-A2F0-E08CBC6358BF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AF8B432E-A53D-438C-8812-5C619692AF5A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7694E6F0-99DD-4D06-9B14-3F429DFAD289}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13522,7 +13522,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D120BD7E-6966-4DD9-8E84-32A20A4BFDC9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C674BA58-3557-425C-BF37-9DFBD773629E}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -14716,18 +14716,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1EDB4DDD-4CE5-4787-9027-FDE2085532A6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9EA30BF5-73D9-4B36-B12E-2C06953326F3}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{7C30CC57-8406-4C12-A404-48C74B842D57}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F4523410-9420-4C93-8D91-B3F145609989}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{02AFE65A-EE49-4D22-80D2-6FC4291A640D}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F419C8A0-23E2-4E54-80F4-74059ABFC646}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{12530769-0A04-49F9-ABC0-28B8184A891C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CDC71B25-C793-4244-AF25-80329A628EF5}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FC0D15F0-D8EE-4AA6-9A0B-21D569DAD5A4}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B940FB13-DC40-49AB-B662-72D8444837E6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{23CCC800-33A0-4DC1-82D0-6E21AADA63B0}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2B944B3D-43E7-42A5-89E2-DDADF01495F4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EACC2FE1-553F-48E3-B487-E6E7CFC6E3B7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DACE4FAA-6143-4086-94FB-7207E04433FA}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8B8E682A-13FB-4BE9-B0B3-4FD8A841742F}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{AD1A45CB-FC33-4123-93D8-7D74D862CA3E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CF1761E0-29B5-4E63-9C34-7D47DA300C44}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{EDEE6B34-DE82-4768-B731-C398DADB10DB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2AA1A573-084F-4F7D-9DE7-01062B7F4811}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9103F31F-B478-424A-A217-6234CD7A108F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B0B25ACB-0378-4FEC-84ED-41D969539BF2}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F99C0153-658F-4F1A-B192-94B965AD65E7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{028AEE2E-DA4E-44DD-BEA1-88E85DCC7C2D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{09BAA012-3FF1-4E4A-8140-97825A520C13}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14740,7 +14740,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93F6FB7D-ACF5-4BCF-BE44-B8445BC3846C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{189E6FB9-E342-43FC-93FD-D471B09584D6}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -15926,18 +15926,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E95F6083-A9BB-4704-BC99-DD76215CE541}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E57A4CB6-D860-43A0-8B1E-9DAE7A7A7122}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{03AE45FC-B357-4527-A25E-A81BE0C20962}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{3BC77281-0DFB-475C-B13A-0A935258256B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{52B7DC0B-8286-40EE-95C7-7CEB7599D460}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{DE660D19-8EF6-4C41-85C8-FB231FEFB281}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{45DABE2F-5D43-4E25-8FDA-E37C145BFE58}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6A48CCFE-F4D7-4E54-97BD-FA20D6BE300C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2D140CA4-56CA-4B7A-AAB9-019F9D4AD22D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B83ADF6C-411E-4DC7-9541-2E11295E3689}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9B4E6274-E600-4513-A8E1-7EA39F9EF486}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BD4FBF4D-5BC8-4339-A3A7-9FA84F5A4973}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{50123D85-38E9-4321-954F-E802EA85FD88}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BAAF6526-3E49-4C33-B729-CAF54EBE7C3A}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{504F7884-C893-4B67-AAC1-276F33E8B2AE}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{DE93661D-F05B-42F3-8785-1A8DEB69D79E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6BC431B9-C7C6-472C-957A-D11D64A220AF}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{3B043048-1EE9-4905-9B35-B143A3540751}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5C4771BD-435B-4883-9777-BDDF502D36C4}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{85D190F3-D752-4C70-B34C-B81E416C9E35}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3579363D-DC7F-4E51-B298-9149492D48E9}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{EB2C0394-F56B-454E-8516-A151366826AC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2DC5FA3A-236E-48E9-80F5-96D8854B8A50}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{75ED615E-AF4A-4353-8D12-53207A3E1B7D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
